--- a/hola mundo.xlsx
+++ b/hola mundo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefany\Desktop\DIPLOMADO\Modulo1\Tarea3\Mi_-primer_repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D59FDC8-2E8A-4A1D-B214-5E65ED3A052B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4EEF1-3242-4C3B-A430-E1E940E13DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{758B28C3-20CE-4BF8-B75C-BF2E70B3EBBF}"/>
   </bookViews>
@@ -390,17 +390,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D488492-8C1D-4BCE-832B-66FE059235ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>B2+C2</f>
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
